--- a/analysis/Sensitivity.xlsx
+++ b/analysis/Sensitivity.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>scenario</t>
   </si>
@@ -34,24 +34,6 @@
     <t>BASELINE SCENARIO 80% SHARE</t>
   </si>
   <si>
-    <t>Change in Storage Energy capactiy in 10 GWh</t>
-  </si>
-  <si>
-    <t>Change in Storage Power capactiy in GW</t>
-  </si>
-  <si>
-    <t>Double storage costs</t>
-  </si>
-  <si>
-    <t>Half storage costs</t>
-  </si>
-  <si>
-    <t>30% less potential for RES necessary</t>
-  </si>
-  <si>
-    <t>30% more potential for RES necessary</t>
-  </si>
-  <si>
     <t>Storage for generator types</t>
   </si>
   <si>
@@ -59,6 +41,42 @@
   </si>
   <si>
     <t xml:space="preserve">20% less investment costs for RES </t>
+  </si>
+  <si>
+    <t>Change in Storage Energy capacity in 10 GWh</t>
+  </si>
+  <si>
+    <t>Change in Storage Power capacity in GW</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>Double storage costs for investment and variable costs</t>
+  </si>
+  <si>
+    <t>Half storage costs for investment and variable costs</t>
+  </si>
+  <si>
+    <t>30% more area for RES necessary</t>
+  </si>
+  <si>
+    <t>30% less area for RES necessary (e.g. 0.7 for turbine)</t>
+  </si>
+  <si>
+    <t>RES potential -30%</t>
+  </si>
+  <si>
+    <t>Store all</t>
+  </si>
+  <si>
+    <t>RES potential +30%</t>
+  </si>
+  <si>
+    <t>Double cost storage</t>
+  </si>
+  <si>
+    <t>Half cost storage</t>
   </si>
 </sst>
 </file>
@@ -125,10 +143,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34652363945481079"/>
-          <c:y val="2.9513661539253198E-2"/>
-          <c:w val="0.54289578693422169"/>
-          <c:h val="0.80186521168763958"/>
+          <c:x val="0.35802363744493199"/>
+          <c:y val="2.9513661539253201E-2"/>
+          <c:w val="0.58051225677027696"/>
+          <c:h val="0.66990575644054828"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -143,7 +161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change in Storage Power capactiy in GW</c:v>
+                  <c:v>Change in Storage Power capacity in GW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -159,25 +177,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Double storage costs</c:v>
+                  <c:v>Double cost storage</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Half storage costs</c:v>
+                  <c:v>Half cost storage</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30% more potential for RES necessary</c:v>
+                  <c:v>RES potential -30%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30% less potential for RES necessary</c:v>
+                  <c:v>RES potential +30%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Storage for generator types</c:v>
+                  <c:v>Store all</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10% demand increase in all hours</c:v>
+                  <c:v>+10% demand</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20% less investment costs for RES </c:v>
+                  <c:v>-20% RES costs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -222,7 +240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change in Storage Energy capactiy in 10 GWh</c:v>
+                  <c:v>Change in Storage Energy capacity in 10 GWh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -240,25 +258,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Double storage costs</c:v>
+                  <c:v>Double cost storage</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Half storage costs</c:v>
+                  <c:v>Half cost storage</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30% more potential for RES necessary</c:v>
+                  <c:v>RES potential -30%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30% less potential for RES necessary</c:v>
+                  <c:v>RES potential +30%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Storage for generator types</c:v>
+                  <c:v>Store all</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10% demand increase in all hours</c:v>
+                  <c:v>+10% demand</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20% less investment costs for RES </c:v>
+                  <c:v>-20% RES costs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -294,12 +312,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="67467904"/>
-        <c:axId val="68294144"/>
+        <c:axId val="143625600"/>
+        <c:axId val="143643776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67467904"/>
+        <c:axId val="143625600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,18 +328,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0"/>
+              <a:defRPr sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68294144"/>
+        <c:crossAx val="143643776"/>
         <c:crosses val="autoZero"/>
-        <c:lblAlgn val="ctr"/>
+        <c:lblAlgn val="r"/>
         <c:lblOffset val="300"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68294144"/>
+        <c:axId val="143643776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30"/>
@@ -344,10 +367,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>10 GWh  /  GW</a:t>
                 </a:r>
               </a:p>
@@ -358,21 +395,76 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67467904"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143625600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24454968452306527"/>
-          <c:y val="0.91132261934488346"/>
-          <c:w val="0.73067390392313547"/>
-          <c:h val="8.8399970576719389E-2"/>
+          <c:x val="0.38292455570569706"/>
+          <c:y val="0.80030910937510824"/>
+          <c:w val="0.52781365587869467"/>
+          <c:h val="0.10515672679857224"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -380,7 +472,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1300" b="0"/>
+            <a:defRPr sz="1300" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
         </a:p>
@@ -407,7 +506,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -726,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -739,9 +838,10 @@
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,15 +852,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>100.95989388969799</v>
@@ -776,10 +879,13 @@
         <f>C2-$C$19</f>
         <v>-5.6195545683319708</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>398.73606363934698</v>
@@ -795,10 +901,13 @@
         <f>C3-$C$19</f>
         <v>8.0674059983875281</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>203.08027688412599</v>
@@ -814,10 +923,13 @@
         <f>C4-$C$19</f>
         <v>-0.1152991076640717</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>251.25482834095399</v>
@@ -833,10 +945,13 @@
         <f t="shared" ref="E5:E6" si="1">C5-$C$19</f>
         <v>4.12719381518313</v>
       </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>337.05073901179799</v>
@@ -852,10 +967,14 @@
         <f t="shared" si="1"/>
         <v>26.208201360765425</v>
       </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>12</v>
+    <row r="7" spans="1:6">
+      <c r="A7" t="str">
+        <f xml:space="preserve"> "+10% demand"</f>
+        <v>+10% demand</v>
       </c>
       <c r="B7">
         <v>265.25159506307199</v>
@@ -871,10 +990,14 @@
         <f t="shared" ref="E7" si="3">C7-$C$19</f>
         <v>6.0931597106566286</v>
       </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>13</v>
+    <row r="8" spans="1:6">
+      <c r="A8" t="str">
+        <f>"-20% RES costs"</f>
+        <v>-20% RES costs</v>
       </c>
       <c r="B8">
         <v>181.68572025985</v>
@@ -889,6 +1012,9 @@
       <c r="E8">
         <f t="shared" ref="E8" si="5">C8-$C$19</f>
         <v>-1.5109435847362711</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/analysis/Sensitivity.xlsx
+++ b/analysis/Sensitivity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9795"/>
+    <workbookView xWindow="405" yWindow="240" windowWidth="23715" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="figure_sensitivity" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>scenario</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Half storage costs for investment and variable costs</t>
   </si>
   <si>
-    <t>30% more area for RES necessary</t>
-  </si>
-  <si>
-    <t>30% less area for RES necessary (e.g. 0.7 for turbine)</t>
-  </si>
-  <si>
     <t>RES potential -30%</t>
   </si>
   <si>
@@ -77,6 +71,21 @@
   </si>
   <si>
     <t>Half cost storage</t>
+  </si>
+  <si>
+    <t>10% demand increase in peak hours (hours above 3rd quantile)</t>
+  </si>
+  <si>
+    <t>1 GW means increase</t>
+  </si>
+  <si>
+    <t>10 GWH means increase</t>
+  </si>
+  <si>
+    <t>30% less area for RES necessary</t>
+  </si>
+  <si>
+    <t>30% more area for RES necessary (e.g. 1.3 for turbine)</t>
   </si>
 </sst>
 </file>
@@ -143,10 +152,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35802363744493199"/>
+          <c:x val="0.35802363744493204"/>
           <c:y val="2.9513661539253201E-2"/>
-          <c:w val="0.58051225677027696"/>
-          <c:h val="0.66990575644054828"/>
+          <c:w val="0.58051225677027685"/>
+          <c:h val="0.42064900764048707"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -173,9 +182,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>sensitivity_scen!$A$2:$A$8</c:f>
+              <c:f>sensitivity_scen!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Double cost storage</c:v>
                 </c:pt>
@@ -183,29 +192,26 @@
                   <c:v>Half cost storage</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>RES potential +30%</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>RES potential -30%</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RES potential +30%</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Store all</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>+10% demand</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-20% RES costs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sensitivity_scen!$E$2:$E$8</c:f>
+              <c:f>sensitivity_scen!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-5.6195545683319708</c:v>
                 </c:pt>
@@ -223,9 +229,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.0931597106566286</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.5109435847362711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,9 +257,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>sensitivity_scen!$A$2:$A$8</c:f>
+              <c:f>sensitivity_scen!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Double cost storage</c:v>
                 </c:pt>
@@ -264,29 +267,26 @@
                   <c:v>Half cost storage</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>RES potential +30%</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>RES potential -30%</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RES potential +30%</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Store all</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>+10% demand</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-20% RES costs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sensitivity_scen!$D$2:$D$8</c:f>
+              <c:f>sensitivity_scen!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-10.869213818750932</c:v>
                 </c:pt>
@@ -304,19 +304,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.5599562985864681</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.796631181735731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="143625600"/>
-        <c:axId val="143643776"/>
+        <c:axId val="118126848"/>
+        <c:axId val="118140928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143625600"/>
+        <c:axId val="118126848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,13 +336,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143643776"/>
+        <c:crossAx val="118140928"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="r"/>
         <c:lblOffset val="300"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143643776"/>
+        <c:axId val="118140928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30"/>
@@ -412,7 +409,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143625600"/>
+        <c:crossAx val="118126848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -461,10 +458,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38292455570569706"/>
-          <c:y val="0.80030910937510824"/>
+          <c:x val="0.39232867316471082"/>
+          <c:y val="0.56780911679689983"/>
           <c:w val="0.52781365587869467"/>
-          <c:h val="0.10515672679857224"/>
+          <c:h val="0.10515672679857226"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -506,7 +503,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -516,7 +513,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="-30726" y="-30726"/>
+    <xdr:pos x="-28015" y="-28015"/>
     <xdr:ext cx="9453306" cy="6063226"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -825,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -836,8 +833,8 @@
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -863,7 +860,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>100.95989388969799</v>
@@ -885,7 +882,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>398.73606363934698</v>
@@ -924,12 +921,12 @@
         <v>-0.1152991076640717</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>251.25482834095399</v>
@@ -946,12 +943,12 @@
         <v>4.12719381518313</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>337.05073901179799</v>
@@ -983,11 +980,11 @@
         <v>25.0322798535197</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7" si="2">(B7-$B$19)/10</f>
+        <f>(B7-$B$19)/10</f>
         <v>5.5599562985864681</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7" si="3">C7-$C$19</f>
+        <f t="shared" ref="E7" si="2">C7-$C$19</f>
         <v>6.0931597106566286</v>
       </c>
       <c r="F7" t="s">
@@ -1006,23 +1003,50 @@
         <v>17.4281765581268</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8" si="4">(B8-$B$19)/10</f>
+        <f t="shared" ref="D8" si="3">(B8-$B$19)/10</f>
         <v>-2.796631181735731</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8" si="5">C8-$C$19</f>
+        <f t="shared" ref="E8" si="4">C8-$C$19</f>
         <v>-1.5109435847362711</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="9" spans="1:6">
+      <c r="A9" t="str">
+        <f>"+10% peak demand"</f>
+        <v>+10% peak demand</v>
+      </c>
+      <c r="B9">
+        <v>339.45527659941501</v>
+      </c>
+      <c r="C9">
+        <v>43.940251340327599</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="5">(B9-$B$19)/10</f>
+        <v>12.980324452220771</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="6">C9-$C$19</f>
+        <v>25.001131197464527</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E17">
+        <f>E7/C19</f>
+        <v>0.3217234837043233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="B19">
         <v>209.65203207720731</v>
       </c>
@@ -1030,9 +1054,47 @@
         <v>18.939120142863072</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="str">
+        <f>"1 pc increase in E"</f>
+        <v>1 pc increase in E</v>
+      </c>
+      <c r="C26">
+        <f>B19*0.01</f>
+        <v>2.0965203207720733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="str">
+        <f>"1 pc increase in P"</f>
+        <v>1 pc increase in P</v>
+      </c>
+      <c r="C27">
+        <f>C19*0.01</f>
+        <v>0.18939120142863072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <f>10/B19</f>
+        <v>4.76980828705603E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <f>1/C19</f>
+        <v>5.28007633119554E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Sensitivity.xlsx
+++ b/analysis/Sensitivity.xlsx
@@ -58,15 +58,9 @@
     <t>Half storage costs for investment and variable costs</t>
   </si>
   <si>
-    <t>RES potential -30%</t>
-  </si>
-  <si>
     <t>Store all</t>
   </si>
   <si>
-    <t>RES potential +30%</t>
-  </si>
-  <si>
     <t>Double cost storage</t>
   </si>
   <si>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>30% more area for RES necessary (e.g. 1.3 for turbine)</t>
+  </si>
+  <si>
+    <t>RES Area Use -30%</t>
+  </si>
+  <si>
+    <t>RES Area Use +30%</t>
   </si>
 </sst>
 </file>
@@ -152,9 +152,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35802363744493204"/>
+          <c:x val="0.35802363744493215"/>
           <c:y val="2.9513661539253201E-2"/>
-          <c:w val="0.58051225677027685"/>
+          <c:w val="0.5805122567702764"/>
           <c:h val="0.42064900764048707"/>
         </c:manualLayout>
       </c:layout>
@@ -192,10 +192,10 @@
                   <c:v>Half cost storage</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RES potential +30%</c:v>
+                  <c:v>RES Area Use -30%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RES potential -30%</c:v>
+                  <c:v>RES Area Use +30%</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Store all</c:v>
@@ -267,10 +267,10 @@
                   <c:v>Half cost storage</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RES potential +30%</c:v>
+                  <c:v>RES Area Use -30%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RES potential -30%</c:v>
+                  <c:v>RES Area Use +30%</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Store all</c:v>
@@ -309,11 +309,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="118126848"/>
-        <c:axId val="118140928"/>
+        <c:axId val="128199680"/>
+        <c:axId val="118190848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118126848"/>
+        <c:axId val="128199680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,13 +336,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118140928"/>
+        <c:crossAx val="118190848"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="r"/>
         <c:lblOffset val="300"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118140928"/>
+        <c:axId val="118190848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30"/>
@@ -409,7 +409,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118126848"/>
+        <c:crossAx val="128199680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -458,10 +458,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39232867316471082"/>
-          <c:y val="0.56780911679689983"/>
+          <c:x val="0.39232867316471115"/>
+          <c:y val="0.56780911679690005"/>
           <c:w val="0.52781365587869467"/>
-          <c:h val="0.10515672679857226"/>
+          <c:h val="0.10515672679857228"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -503,7 +503,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>100.95989388969799</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>398.73606363934698</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>203.08027688412599</v>
@@ -921,12 +921,12 @@
         <v>-0.1152991076640717</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>251.25482834095399</v>
@@ -943,12 +943,12 @@
         <v>4.12719381518313</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>337.05073901179799</v>
@@ -1034,7 +1034,17 @@
         <v>25.001131197464527</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13">
+        <f>D5/B19*10</f>
+        <v>0.19843736238352258</v>
+      </c>
+      <c r="E13">
+        <f>E5/C19</f>
+        <v>0.21791898377805066</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1081,7 +1091,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <f>10/B19</f>
@@ -1090,7 +1100,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <f>1/C19</f>
@@ -1107,7 +1117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>

--- a/analysis/Sensitivity.xlsx
+++ b/analysis/Sensitivity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="240" windowWidth="23715" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="405" yWindow="240" windowWidth="23715" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="figure_sensitivity" sheetId="4" r:id="rId1"/>
@@ -152,9 +152,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35802363744493215"/>
+          <c:x val="0.35802363744493232"/>
           <c:y val="2.9513661539253201E-2"/>
-          <c:w val="0.5805122567702764"/>
+          <c:w val="0.58051225677027585"/>
           <c:h val="0.42064900764048707"/>
         </c:manualLayout>
       </c:layout>
@@ -182,9 +182,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>sensitivity_scen!$A$2:$A$7</c:f>
+              <c:f>sensitivity_scen!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Double cost storage</c:v>
                 </c:pt>
@@ -195,12 +195,9 @@
                   <c:v>RES Area Use -30%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RES Area Use +30%</c:v>
+                  <c:v>Store all</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Store all</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>+10% demand</c:v>
                 </c:pt>
               </c:strCache>
@@ -208,27 +205,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sensitivity_scen!$E$2:$E$7</c:f>
+              <c:f>sensitivity_scen!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-5.6195545683319708</c:v>
+                  <c:v>-25.6396420966622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0674059983875281</c:v>
+                  <c:v>15.385864210776234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1152991076640717</c:v>
+                  <c:v>-7.5655830600737843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.12719381518313</c:v>
+                  <c:v>-21.95984224957515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.208201360765425</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0931597106566286</c:v>
+                  <c:v>4.9993143618682581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -257,9 +251,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>sensitivity_scen!$A$2:$A$7</c:f>
+              <c:f>sensitivity_scen!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Double cost storage</c:v>
                 </c:pt>
@@ -270,12 +264,9 @@
                   <c:v>RES Area Use -30%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RES Area Use +30%</c:v>
+                  <c:v>Store all</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Store all</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>+10% demand</c:v>
                 </c:pt>
               </c:strCache>
@@ -283,37 +274,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sensitivity_scen!$D$2:$D$7</c:f>
+              <c:f>sensitivity_scen!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-10.869213818750932</c:v>
+                  <c:v>-19.369734025034823</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.908403156213968</c:v>
+                  <c:v>19.847059215933221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.65717551930813156</c:v>
+                  <c:v>-4.5349315162196548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1602796263746686</c:v>
+                  <c:v>-11.371727280884832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.739870693459068</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5599562985864681</c:v>
+                  <c:v>3.4392020292637824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128199680"/>
-        <c:axId val="118190848"/>
+        <c:axId val="139385088"/>
+        <c:axId val="139595776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128199680"/>
+        <c:axId val="139385088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,13 +324,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118190848"/>
+        <c:crossAx val="139595776"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="r"/>
         <c:lblOffset val="300"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118190848"/>
+        <c:axId val="139595776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30"/>
@@ -409,7 +397,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128199680"/>
+        <c:crossAx val="139385088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -458,10 +446,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39232867316471115"/>
+          <c:x val="0.39232867316471215"/>
           <c:y val="0.56780911679690005"/>
           <c:w val="0.52781365587869467"/>
-          <c:h val="0.10515672679857228"/>
+          <c:h val="0.10515672679857241"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -503,7 +491,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -822,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -863,18 +851,18 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>100.95989388969799</v>
+        <v>143.3533987496518</v>
       </c>
       <c r="C2">
-        <v>13.319565574531101</v>
+        <v>19.507679403337796</v>
       </c>
       <c r="D2">
-        <f>(B2-$B$19)/10</f>
-        <v>-10.869213818750932</v>
+        <f>(B2-$B$18)/10</f>
+        <v>-19.369734025034823</v>
       </c>
       <c r="E2">
-        <f>C2-$C$19</f>
-        <v>-5.6195545683319708</v>
+        <f>C2-$C$18</f>
+        <v>-25.6396420966622</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -885,18 +873,18 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>398.73606363934698</v>
+        <v>535.52133115933225</v>
       </c>
       <c r="C3">
-        <v>27.0065261412506</v>
+        <v>60.53318571077623</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">(B3-$B$19)/10</f>
-        <v>18.908403156213968</v>
+        <f>(B3-$B$18)/10</f>
+        <v>19.847059215933221</v>
       </c>
       <c r="E3">
-        <f>C3-$C$19</f>
-        <v>8.0674059983875281</v>
+        <f>C3-$C$18</f>
+        <v>15.385864210776234</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -907,18 +895,18 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>203.08027688412599</v>
+        <v>291.70142383780347</v>
       </c>
       <c r="C4">
-        <v>18.823821035199</v>
+        <v>37.581738439926212</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-0.65717551930813156</v>
+        <f t="shared" ref="D4" si="0">(B4-$B$18)/10</f>
+        <v>-4.5349315162196548</v>
       </c>
       <c r="E4">
-        <f>C4-$C$19</f>
-        <v>-0.1152991076640717</v>
+        <f>C4-$C$18</f>
+        <v>-7.5655830600737843</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -926,185 +914,145 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>251.25482834095399</v>
+        <v>223.3334661911517</v>
       </c>
       <c r="C5">
-        <v>23.066313958046202</v>
+        <v>23.187479250424847</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4.1602796263746686</v>
+        <f>(B5-$B$18)/10</f>
+        <v>-11.371727280884832</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E6" si="1">C5-$C$19</f>
-        <v>4.12719381518313</v>
+        <f>C5-$C$18</f>
+        <v>-21.95984224957515</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>337.05073901179799</v>
-      </c>
-      <c r="C6">
-        <v>45.147321503628497</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>12.739870693459068</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>26.208201360765425</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="str">
+      <c r="A6" t="str">
         <f xml:space="preserve"> "+10% demand"</f>
         <v>+10% demand</v>
       </c>
-      <c r="B7">
-        <v>265.25159506307199</v>
-      </c>
-      <c r="C7">
-        <v>25.0322798535197</v>
-      </c>
-      <c r="D7">
-        <f>(B7-$B$19)/10</f>
-        <v>5.5599562985864681</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7" si="2">C7-$C$19</f>
-        <v>6.0931597106566286</v>
-      </c>
+      <c r="B6">
+        <v>371.44275929263785</v>
+      </c>
+      <c r="C6">
+        <v>50.146635861868255</v>
+      </c>
+      <c r="D6">
+        <f>(B6-$B$18)/10</f>
+        <v>3.4392020292637824</v>
+      </c>
+      <c r="E6">
+        <f>C6-$C$18</f>
+        <v>4.9993143618682581</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="F7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="str">
-        <f>"-20% RES costs"</f>
-        <v>-20% RES costs</v>
-      </c>
-      <c r="B8">
-        <v>181.68572025985</v>
-      </c>
-      <c r="C8">
-        <v>17.4281765581268</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="3">(B8-$B$19)/10</f>
-        <v>-2.796631181735731</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8" si="4">C8-$C$19</f>
-        <v>-1.5109435847362711</v>
-      </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="str">
-        <f>"+10% peak demand"</f>
-        <v>+10% peak demand</v>
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>339.45527659941501</v>
+        <v>326.51403803896892</v>
       </c>
       <c r="C9">
-        <v>43.940251340327599</v>
+        <v>43.854577675961444</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9" si="5">(B9-$B$19)/10</f>
-        <v>12.980324452220771</v>
+        <f>(B9-$B$18)/10</f>
+        <v>-1.0536700961031102</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9" si="6">C9-$C$19</f>
-        <v>25.001131197464527</v>
+        <f t="shared" ref="E9" si="1">C9-$C$18</f>
+        <v>-1.2927438240385527</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13">
-        <f>D5/B19*10</f>
-        <v>0.19843736238352258</v>
-      </c>
-      <c r="E13">
-        <f>E5/C19</f>
-        <v>0.21791898377805066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" t="e">
+        <f>#REF!/B18*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" t="e">
+        <f>#REF!/C18</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17">
-        <f>E7/C19</f>
-        <v>0.3217234837043233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19">
-        <v>209.65203207720731</v>
-      </c>
-      <c r="C19">
-        <v>18.939120142863072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18">
+        <v>337.05073900000002</v>
+      </c>
+      <c r="C18">
+        <v>45.147321499999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="B26" t="str">
+    <row r="25" spans="1:3">
+      <c r="B25" t="str">
         <f>"1 pc increase in E"</f>
         <v>1 pc increase in E</v>
       </c>
-      <c r="C26">
-        <f>B19*0.01</f>
-        <v>2.0965203207720733</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" t="str">
+      <c r="C25">
+        <f>B18*0.01</f>
+        <v>3.3705073900000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="str">
         <f>"1 pc increase in P"</f>
         <v>1 pc increase in P</v>
       </c>
+      <c r="C26">
+        <f>C18*0.01</f>
+        <v>0.45147321499999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
       <c r="C27">
-        <f>C19*0.01</f>
-        <v>0.18939120142863072</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f>10/B18</f>
+        <v>2.9669123496566491E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <f>10/B19</f>
-        <v>4.76980828705603E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29">
-        <f>1/C19</f>
-        <v>5.28007633119554E-2</v>
+        <f>1/C18</f>
+        <v>2.2149708261208809E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Sensitivity.xlsx
+++ b/analysis/Sensitivity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="240" windowWidth="23715" windowHeight="9795"/>
+    <workbookView xWindow="405" yWindow="240" windowWidth="23715" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="figure_sensitivity" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>scenario</t>
   </si>
@@ -43,12 +43,6 @@
     <t xml:space="preserve">20% less investment costs for RES </t>
   </si>
   <si>
-    <t>Change in Storage Energy capacity in 10 GWh</t>
-  </si>
-  <si>
-    <t>Change in Storage Power capacity in GW</t>
-  </si>
-  <si>
     <t>explanation</t>
   </si>
   <si>
@@ -86,6 +80,24 @@
   </si>
   <si>
     <t>RES Area Use +30%</t>
+  </si>
+  <si>
+    <t>PV capacity</t>
+  </si>
+  <si>
+    <t>Wind capacity change</t>
+  </si>
+  <si>
+    <t>PV capacity change</t>
+  </si>
+  <si>
+    <t>Wind apacity</t>
+  </si>
+  <si>
+    <t>Storage Energy capacity</t>
+  </si>
+  <si>
+    <t>Storage Power capacity</t>
   </si>
 </sst>
 </file>
@@ -138,6 +150,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -152,8 +169,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35802363744493232"/>
-          <c:y val="2.9513661539253201E-2"/>
+          <c:x val="0.20621431274942331"/>
+          <c:y val="0.10701365906532265"/>
           <c:w val="0.58051225677027585"/>
           <c:h val="0.42064900764048707"/>
         </c:manualLayout>
@@ -166,11 +183,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>sensitivity_scen!$E$1</c:f>
+              <c:f>sensitivity_scen!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change in Storage Power capacity in GW</c:v>
+                  <c:v>Storage Power capacity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -182,9 +199,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>sensitivity_scen!$A$2:$A$6</c:f>
+              <c:f>sensitivity_scen!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Double cost storage</c:v>
                 </c:pt>
@@ -195,9 +212,6 @@
                   <c:v>RES Area Use -30%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Store all</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>+10% demand</c:v>
                 </c:pt>
               </c:strCache>
@@ -205,24 +219,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sensitivity_scen!$E$2:$E$6</c:f>
+              <c:f>sensitivity_scen!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-25.6396420966622</c:v>
+                  <c:v>-0.56791059236287589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.385864210776234</c:v>
+                  <c:v>0.3407924036152673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.5655830600737843</c:v>
+                  <c:v>-0.16757545760657772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.95984224957515</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9993143618682581</c:v>
+                  <c:v>0.1107333546214532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,11 +244,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>sensitivity_scen!$D$1</c:f>
+              <c:f>sensitivity_scen!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Change in Storage Energy capacity in 10 GWh</c:v>
+                  <c:v>Storage Energy capacity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -251,9 +262,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>sensitivity_scen!$A$2:$A$6</c:f>
+              <c:f>sensitivity_scen!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Double cost storage</c:v>
                 </c:pt>
@@ -264,9 +275,6 @@
                   <c:v>RES Area Use -30%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Store all</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>+10% demand</c:v>
                 </c:pt>
               </c:strCache>
@@ -274,24 +282,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sensitivity_scen!$D$2:$D$6</c:f>
+              <c:f>sensitivity_scen!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-19.369734025034823</c:v>
+                  <c:v>-0.57468303088440409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.847059215933221</c:v>
+                  <c:v>0.58884485092119088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.5349315162196548</c:v>
+                  <c:v>-0.13454744320319245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.371727280884832</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4392020292637824</c:v>
+                  <c:v>0.10203810973586924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v> PV capacity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF99"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>sensitivity_scen!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.21672250922532491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3329022603401306E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.12212722111510857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10813589554542173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Wind capacity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>sensitivity_scen!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.35983225789133799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10022872229821084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6045714752317033E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11647015137344784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,7 +407,8 @@
         <c:axId val="139595776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-30"/>
+          <c:max val="0.8"/>
+          <c:min val="-0.8"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines>
@@ -362,7 +437,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -370,14 +445,40 @@
                       </a:schemeClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>10 GWh  /  GW</a:t>
+                  <a:t>Capacity</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> change</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44760594864907577"/>
+              <c:y val="0.59294078762691682"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -405,18 +506,21 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="0"/>
+        <c:idx val="2"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="1">
+            <a:pPr algn="ctr">
+              <a:defRPr lang="de-DE" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
+                  <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
+                <a:latin typeface="Caladea" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
@@ -424,18 +528,21 @@
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="1"/>
+        <c:idx val="3"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="1">
+            <a:pPr algn="ctr">
+              <a:defRPr lang="de-DE" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
+                  <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
+                <a:latin typeface="Caladea" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
@@ -446,24 +553,26 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39232867316471215"/>
-          <c:y val="0.56780911679690005"/>
-          <c:w val="0.52781365587869467"/>
-          <c:h val="0.10515672679857241"/>
+          <c:x val="0.19215531582284548"/>
+          <c:y val="0.66206587054482213"/>
+          <c:w val="0.6225209466402547"/>
+          <c:h val="9.4948794585588581E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1300" b="1">
+          <a:pPr algn="ctr">
+            <a:defRPr lang="de-DE" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
               </a:solidFill>
+              <a:latin typeface="Caladea" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
@@ -491,7 +600,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -522,6 +631,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="762000"/>
+          <a:ext cx="9477375" cy="6086475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1524000" y="762000"/>
+          <a:ext cx="9477375" cy="6086475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -810,23 +1009,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="9" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -837,18 +1036,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>143.3533987496518</v>
@@ -857,20 +1068,34 @@
         <v>19.507679403337796</v>
       </c>
       <c r="D2">
-        <f>(B2-$B$18)/10</f>
-        <v>-19.369734025034823</v>
+        <v>146.60470200178824</v>
       </c>
       <c r="E2">
-        <f>C2-$C$18</f>
-        <v>-25.6396420966622</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>188.59727632491325</v>
+      </c>
+      <c r="F2">
+        <f>(B2-$B$17)/$B$17</f>
+        <v>-0.57468303088440409</v>
+      </c>
+      <c r="G2">
+        <f>(C2-$C$17)/$C$17</f>
+        <v>-0.56791059236287589</v>
+      </c>
+      <c r="H2">
+        <f>(D2-$D$17)/$D$17</f>
+        <v>-0.21672250922532491</v>
+      </c>
+      <c r="I2">
+        <f>(E2-$E$17)/$E$17</f>
+        <v>0.35983225789133799</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>535.52133115933225</v>
@@ -879,20 +1104,34 @@
         <v>60.53318571077623</v>
       </c>
       <c r="D3">
-        <f>(B3-$B$18)/10</f>
-        <v>19.847059215933221</v>
+        <v>191.53473472112123</v>
       </c>
       <c r="E3">
-        <f>C3-$C$18</f>
-        <v>15.385864210776234</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>124.79069481193658</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">(B3-$B$17)/$B$17</f>
+        <v>0.58884485092119088</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="1">(C3-$C$17)/$C$17</f>
+        <v>0.3407924036152673</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="2">(D3-$D$17)/$D$17</f>
+        <v>2.3329022603401306E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="3">(E3-$E$17)/$E$17</f>
+        <v>-0.10022872229821084</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>291.70142383780347</v>
@@ -901,157 +1140,181 @@
         <v>37.581738439926212</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4" si="0">(B4-$B$18)/10</f>
-        <v>-4.5349315162196548</v>
+        <v>164.30993952936709</v>
       </c>
       <c r="E4">
-        <f>C4-$C$18</f>
-        <v>-7.5655830600737843</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>223.3334661911517</v>
-      </c>
-      <c r="C5">
-        <v>23.187479250424847</v>
-      </c>
-      <c r="D5">
-        <f>(B5-$B$18)/10</f>
-        <v>-11.371727280884832</v>
-      </c>
-      <c r="E5">
-        <f>C5-$C$18</f>
-        <v>-21.95984224957515</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="str">
+        <v>147.85155821490906</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-0.13454744320319245</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-0.16757545760657772</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-0.12212722111510857</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>6.6045714752317033E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="str">
         <f xml:space="preserve"> "+10% demand"</f>
         <v>+10% demand</v>
       </c>
-      <c r="B6">
+      <c r="B5">
         <v>371.44275929263785</v>
       </c>
-      <c r="C6">
+      <c r="C5">
         <v>50.146635861868255</v>
       </c>
-      <c r="D6">
-        <f>(B6-$B$18)/10</f>
-        <v>3.4392020292637824</v>
-      </c>
-      <c r="E6">
-        <f>C6-$C$18</f>
-        <v>4.9993143618682581</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D5">
+        <v>207.40789140161243</v>
+      </c>
+      <c r="E5">
+        <v>154.84500270173885</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.10203810973586924</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.1107333546214532</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.10813589554542173</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.11647015137344784</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="F7" t="s">
+    <row r="6" spans="1:10">
+      <c r="J6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    <row r="7" spans="1:10">
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>326.51403803896892</v>
+      </c>
+      <c r="C8">
+        <v>43.854577675961444</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F3:F9" si="4">(B8-$B$17)/$B$17*100</f>
+        <v>-3.126146820592226</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8" si="5">C8-$C$17</f>
+        <v>-1.2927438240385527</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>326.51403803896892</v>
+        <v>223.3334661911517</v>
       </c>
       <c r="C9">
-        <v>43.854577675961444</v>
-      </c>
-      <c r="D9">
-        <f>(B9-$B$18)/10</f>
-        <v>-1.0536700961031102</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9" si="1">C9-$C$18</f>
-        <v>-1.2927438240385527</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12" t="e">
-        <f>#REF!/B18*10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" t="e">
-        <f>#REF!/C18</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+        <v>23.187479250424847</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>-33.738918106584634</v>
+      </c>
+      <c r="G9">
+        <f>C9-$C$17</f>
+        <v>-21.95984224957515</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18">
+    <row r="17" spans="1:5">
+      <c r="B17">
         <v>337.05073900000002</v>
       </c>
-      <c r="C18">
+      <c r="C17">
         <v>45.147321499999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="D17">
+        <v>187.16828164791718</v>
+      </c>
+      <c r="E17">
+        <v>138.69157407500165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="str">
+    <row r="24" spans="1:5">
+      <c r="B24" t="str">
         <f>"1 pc increase in E"</f>
         <v>1 pc increase in E</v>
       </c>
-      <c r="C25">
-        <f>B18*0.01</f>
+      <c r="C24">
+        <f>B17*0.01</f>
         <v>3.3705073900000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="str">
+    <row r="25" spans="1:5">
+      <c r="B25" t="str">
         <f>"1 pc increase in P"</f>
         <v>1 pc increase in P</v>
       </c>
+      <c r="C25">
+        <f>C17*0.01</f>
+        <v>0.45147321499999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
       <c r="C26">
-        <f>C18*0.01</f>
-        <v>0.45147321499999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <f>10/B17</f>
+        <v>2.9669123496566491E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27">
-        <f>10/B18</f>
-        <v>2.9669123496566491E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28">
-        <f>1/C18</f>
+        <f>1/C17</f>
         <v>2.2149708261208809E-2</v>
       </c>
     </row>
@@ -1066,12 +1329,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1079,10 +1343,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>